--- a/Bodega Dekorarte/Inventarios por Secciones/Plantilla.xlsx
+++ b/Bodega Dekorarte/Inventarios por Secciones/Plantilla.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bodega\Documents\Bodega Dekorarte\Inventarios por Secciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bodega\Documents\Bodega\Bodega Dekorarte\Inventarios por Secciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="93">
   <si>
     <t>NIT. 900,645,501-1</t>
   </si>
@@ -802,6 +802,48 @@
   <si>
     <t>60</t>
   </si>
+  <si>
+    <t>Monedas</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>de 1 peso colombianos</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>de 10 pesos colombianos</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>de 2 pesos colombianos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monedas </t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>de 5 Pesos colombianos</t>
+  </si>
+  <si>
+    <t>Muñecos</t>
+  </si>
+  <si>
+    <t>Moneda</t>
+  </si>
+  <si>
+    <t>de 500 colones</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
 </sst>
 </file>
 
@@ -810,7 +852,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,10 +953,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1150,9 +1199,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1181,6 +1227,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,22 +1277,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1253,6 +1302,16 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="48"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2785,13 +2844,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>34458</xdr:colOff>
+      <xdr:colOff>101133</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>48970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1432392</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>41742</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>1449093</xdr:rowOff>
     </xdr:to>
@@ -2816,7 +2875,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="520233" y="46102345"/>
+          <a:off x="586908" y="46102345"/>
           <a:ext cx="1397934" cy="1400123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3654,6 +3713,358 @@
         <a:xfrm>
           <a:off x="522840" y="74180204"/>
           <a:ext cx="1399144" cy="1296393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>186199</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>39504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1318751</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1446950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="671974" y="75620379"/>
+          <a:ext cx="1132552" cy="1407446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>350258</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1154692</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1453000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Imagen 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="531057" y="77400840"/>
+          <a:ext cx="1414386" cy="804434"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>153681</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>35059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1332220</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1443584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Imagen 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="639456" y="78568684"/>
+          <a:ext cx="1178539" cy="1408525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>260622</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>36829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1225277</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1451215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Imagen 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="521532" y="80271694"/>
+          <a:ext cx="1414386" cy="964655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>221847</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>35445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1283104</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1450455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Imagen 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="707622" y="81521820"/>
+          <a:ext cx="1061257" cy="1415010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>98001</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>36853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1368850</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1451365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Imagen 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="583776" y="82999603"/>
+          <a:ext cx="1270849" cy="1414512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>153663</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1355890</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1447554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Imagen 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="535949" y="84580962"/>
+          <a:ext cx="1409206" cy="1202227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>421774</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>42759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1140564</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1443141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Imagen 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="907549" y="85958259"/>
+          <a:ext cx="718790" cy="1400382"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3946,18 +4357,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="61.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="11.42578125" style="37"/>
+    <col min="6" max="6" width="11.85546875" style="37" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="1"/>
@@ -3995,7 +4406,7 @@
       <c r="G4" s="31"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="2:8" s="20" customFormat="1" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" s="19" customFormat="1" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="27" t="s">
         <v>8</v>
       </c>
@@ -4006,7 +4417,7 @@
       <c r="G5" s="28"/>
       <c r="H5" s="29"/>
     </row>
-    <row r="6" spans="2:8" s="20" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" s="19" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
         <v>9</v>
       </c>
@@ -4018,30 +4429,30 @@
       <c r="H6" s="35"/>
     </row>
     <row r="7" spans="2:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
@@ -4051,16 +4462,18 @@
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="38">
         <v>1</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
@@ -4070,16 +4483,18 @@
       <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>3</v>
       </c>
       <c r="C10" s="4"/>
@@ -4089,16 +4504,18 @@
       <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="39">
         <v>1</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>4</v>
       </c>
       <c r="C11" s="4"/>
@@ -4108,16 +4525,18 @@
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="39">
         <v>1</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>5</v>
       </c>
       <c r="C12" s="2"/>
@@ -4127,16 +4546,18 @@
       <c r="E12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="38">
         <v>1</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>6</v>
       </c>
       <c r="C13" s="6"/>
@@ -4146,16 +4567,18 @@
       <c r="E13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>7</v>
       </c>
       <c r="C14" s="2"/>
@@ -4165,16 +4588,18 @@
       <c r="E14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="38">
         <v>1</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>8</v>
       </c>
       <c r="C15" s="2"/>
@@ -4184,16 +4609,18 @@
       <c r="E15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="38">
         <v>1</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
@@ -4203,16 +4630,18 @@
       <c r="E16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="38">
         <v>1</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>10</v>
       </c>
       <c r="C17" s="2"/>
@@ -4222,16 +4651,18 @@
       <c r="E17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="38">
         <v>1</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>11</v>
       </c>
       <c r="C18" s="2"/>
@@ -4241,16 +4672,18 @@
       <c r="E18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="38">
         <v>1</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>12</v>
       </c>
       <c r="C19" s="2"/>
@@ -4260,16 +4693,18 @@
       <c r="E19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="38">
         <v>1</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>13</v>
       </c>
       <c r="C20" s="2"/>
@@ -4279,16 +4714,18 @@
       <c r="E20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="38">
         <v>1</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>14</v>
       </c>
       <c r="C21" s="2"/>
@@ -4298,16 +4735,18 @@
       <c r="E21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="38">
         <v>1</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H21" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>15</v>
       </c>
       <c r="C22" s="2"/>
@@ -4317,16 +4756,18 @@
       <c r="E22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="38">
         <v>1</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>16</v>
       </c>
       <c r="C23" s="2"/>
@@ -4336,16 +4777,18 @@
       <c r="E23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="38">
         <v>1</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>17</v>
       </c>
       <c r="C24" s="2"/>
@@ -4355,16 +4798,18 @@
       <c r="E24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="38">
         <v>1</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>18</v>
       </c>
       <c r="C25" s="2"/>
@@ -4374,16 +4819,18 @@
       <c r="E25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="38">
         <v>1</v>
       </c>
-      <c r="G25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>19</v>
       </c>
       <c r="C26" s="2"/>
@@ -4393,16 +4840,18 @@
       <c r="E26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="38">
         <v>1</v>
       </c>
-      <c r="G26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H26" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>20</v>
       </c>
       <c r="C27" s="2"/>
@@ -4412,16 +4861,18 @@
       <c r="E27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="38">
         <v>1</v>
       </c>
-      <c r="G27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>21</v>
       </c>
       <c r="C28" s="2"/>
@@ -4431,16 +4882,18 @@
       <c r="E28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="38">
         <v>1</v>
       </c>
-      <c r="G28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H28" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>22</v>
       </c>
       <c r="C29" s="2"/>
@@ -4450,16 +4903,18 @@
       <c r="E29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="38">
         <v>1</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>23</v>
       </c>
       <c r="C30" s="2"/>
@@ -4469,16 +4924,18 @@
       <c r="E30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="38">
         <v>1</v>
       </c>
-      <c r="G30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H30" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>24</v>
       </c>
       <c r="C31" s="2"/>
@@ -4488,16 +4945,18 @@
       <c r="E31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="38">
         <v>1</v>
       </c>
-      <c r="G31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H31" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>25</v>
       </c>
       <c r="C32" s="2"/>
@@ -4507,14 +4966,16 @@
       <c r="E32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="38">
         <v>1</v>
       </c>
-      <c r="G32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>26</v>
       </c>
       <c r="C33" s="2"/>
@@ -4524,14 +4985,16 @@
       <c r="E33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="38">
         <v>1</v>
       </c>
-      <c r="G33" s="8"/>
+      <c r="G33" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>27</v>
       </c>
       <c r="C34" s="2"/>
@@ -4541,14 +5004,16 @@
       <c r="E34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="38">
         <v>1</v>
       </c>
-      <c r="G34" s="8"/>
+      <c r="G34" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>28</v>
       </c>
       <c r="C35" s="2"/>
@@ -4558,14 +5023,16 @@
       <c r="E35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="38">
         <v>1</v>
       </c>
-      <c r="G35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>29</v>
       </c>
       <c r="C36" s="2"/>
@@ -4575,16 +5042,20 @@
       <c r="E36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="F36" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="8"/>
+      <c r="G36" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="36"/>
+      <c r="B37" s="10">
+        <v>30</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="8" t="s">
         <v>52</v>
@@ -4592,14 +5063,18 @@
       <c r="E37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="38">
         <v>1</v>
       </c>
-      <c r="G37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="36"/>
+      <c r="B38" s="10">
+        <v>31</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="8" t="s">
         <v>53</v>
@@ -4607,16 +5082,20 @@
       <c r="E38" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="8"/>
+      <c r="G38" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H38" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="36"/>
+      <c r="B39" s="10">
+        <v>32</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="8" t="s">
         <v>53</v>
@@ -4624,16 +5103,20 @@
       <c r="E39" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="8"/>
+      <c r="G39" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H39" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="36"/>
+      <c r="B40" s="10">
+        <v>33</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="8" t="s">
         <v>56</v>
@@ -4641,14 +5124,18 @@
       <c r="E40" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="39">
+      <c r="F40" s="38">
         <v>1</v>
       </c>
-      <c r="G40" s="8"/>
+      <c r="G40" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="36"/>
+      <c r="B41" s="10">
+        <v>34</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="8" t="s">
         <v>56</v>
@@ -4656,14 +5143,18 @@
       <c r="E41" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="39">
+      <c r="F41" s="38">
         <v>1</v>
       </c>
-      <c r="G41" s="8"/>
+      <c r="G41" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="36"/>
+      <c r="B42" s="10">
+        <v>35</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="8" t="s">
         <v>57</v>
@@ -4671,14 +5162,18 @@
       <c r="E42" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="39">
+      <c r="F42" s="38">
         <v>1</v>
       </c>
-      <c r="G42" s="8"/>
+      <c r="G42" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="36"/>
+      <c r="B43" s="10">
+        <v>36</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="8" t="s">
         <v>58</v>
@@ -4686,14 +5181,18 @@
       <c r="E43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="39">
+      <c r="F43" s="38">
         <v>21</v>
       </c>
-      <c r="G43" s="8"/>
+      <c r="G43" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="36"/>
+      <c r="B44" s="10">
+        <v>37</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="8" t="s">
         <v>59</v>
@@ -4701,16 +5200,20 @@
       <c r="E44" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="39">
+      <c r="F44" s="38">
         <v>14</v>
       </c>
-      <c r="G44" s="8"/>
+      <c r="G44" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H44" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="36"/>
+      <c r="B45" s="10">
+        <v>38</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="8" t="s">
         <v>63</v>
@@ -4718,16 +5221,20 @@
       <c r="E45" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="8"/>
+      <c r="G45" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H45" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="36"/>
+      <c r="B46" s="10">
+        <v>39</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="8" t="s">
         <v>64</v>
@@ -4735,14 +5242,18 @@
       <c r="E46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="39" t="s">
+      <c r="F46" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="8"/>
+      <c r="G46" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="36"/>
+      <c r="B47" s="10">
+        <v>40</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="8" t="s">
         <v>65</v>
@@ -4750,14 +5261,18 @@
       <c r="E47" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="39" t="s">
+      <c r="F47" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="8"/>
+      <c r="G47" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="36"/>
+      <c r="B48" s="10">
+        <v>41</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="8" t="s">
         <v>66</v>
@@ -4765,14 +5280,18 @@
       <c r="E48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="8"/>
+      <c r="G48" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="36"/>
+      <c r="B49" s="10">
+        <v>42</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="8" t="s">
         <v>67</v>
@@ -4780,14 +5299,18 @@
       <c r="E49" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="F49" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="8"/>
+      <c r="G49" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="36"/>
+      <c r="B50" s="10">
+        <v>43</v>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="8" t="s">
         <v>66</v>
@@ -4795,14 +5318,18 @@
       <c r="E50" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="8"/>
+      <c r="G50" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="36"/>
+      <c r="B51" s="10">
+        <v>44</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="8" t="s">
         <v>63</v>
@@ -4810,14 +5337,18 @@
       <c r="E51" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="39" t="s">
+      <c r="F51" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="8"/>
+      <c r="G51" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="36"/>
+      <c r="B52" s="10">
+        <v>45</v>
+      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="8" t="s">
         <v>59</v>
@@ -4825,14 +5356,18 @@
       <c r="E52" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="39" t="s">
+      <c r="F52" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="G52" s="8"/>
+      <c r="G52" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="36"/>
+      <c r="B53" s="10">
+        <v>46</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="8" t="s">
         <v>70</v>
@@ -4840,14 +5375,18 @@
       <c r="E53" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="39" t="s">
+      <c r="F53" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="8"/>
+      <c r="G53" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="36"/>
+      <c r="B54" s="10">
+        <v>47</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="8" t="s">
         <v>71</v>
@@ -4855,14 +5394,18 @@
       <c r="E54" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="39" t="s">
+      <c r="F54" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G54" s="8"/>
+      <c r="G54" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="36"/>
+      <c r="B55" s="10">
+        <v>48</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="8" t="s">
         <v>72</v>
@@ -4870,16 +5413,20 @@
       <c r="E55" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="39" t="s">
+      <c r="F55" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="G55" s="8"/>
+      <c r="G55" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H55" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="36"/>
+      <c r="B56" s="10">
+        <v>49</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="8" t="s">
         <v>77</v>
@@ -4887,123 +5434,235 @@
       <c r="E56" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="39" t="s">
+      <c r="F56" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="G56" s="8"/>
+      <c r="G56" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H56" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="36"/>
+      <c r="B57" s="10">
+        <v>50</v>
+      </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="7"/>
+      <c r="D57" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="58" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="36"/>
+      <c r="B58" s="10">
+        <v>51</v>
+      </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="7"/>
+      <c r="D58" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="59" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="36"/>
+      <c r="B59" s="10">
+        <v>52</v>
+      </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="7"/>
+      <c r="D59" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="60" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="36"/>
+      <c r="B60" s="10">
+        <v>53</v>
+      </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="7"/>
+      <c r="D60" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="61" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="36"/>
+      <c r="B61" s="10">
+        <v>54</v>
+      </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="7"/>
+      <c r="D61" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="62" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="36"/>
+      <c r="B62" s="10">
+        <v>55</v>
+      </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="7"/>
+      <c r="D62" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="63" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="36"/>
+      <c r="B63" s="10">
+        <v>56</v>
+      </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="7"/>
+      <c r="D63" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="64" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="36"/>
+      <c r="B64" s="10">
+        <v>57</v>
+      </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="7"/>
+      <c r="D64" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="65" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="36"/>
+      <c r="B65" s="10">
+        <v>58</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="8"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="36"/>
+      <c r="B66" s="10">
+        <v>59</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="8"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="36"/>
+      <c r="B67" s="10">
+        <v>60</v>
+      </c>
       <c r="C67" s="2"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="8"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="2:8" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="11">
-        <v>30</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
+      <c r="B68" s="10">
+        <v>61</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
       <c r="F68" s="41"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="14"/>
+      <c r="G68" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="2:8" ht="97.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
